--- a/model/Outputs/1. Base Case/Output_0_40.xlsx
+++ b/model/Outputs/1. Base Case/Output_0_40.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,7 +500,47 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2894072.398783949</v>
+        <v>2894072.398783948</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Wasted Prosumer Surplus</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>422200.0190744655</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Total Wasted Prosumer Surplus</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>422200.0190744655</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Unmet Demand</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>25087.83003524065</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Total Unmet Demand</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>25087.83003524065</v>
       </c>
     </row>
   </sheetData>
@@ -26154,7 +26194,7 @@
         <v>1021170.676084554</v>
       </c>
       <c r="P2" t="n">
-        <v>950894.636810594</v>
+        <v>950894.6368105941</v>
       </c>
     </row>
     <row r="3">
@@ -26323,7 +26363,7 @@
         <v>379884.7038305624</v>
       </c>
       <c r="C6" t="n">
-        <v>408666.5843088405</v>
+        <v>408666.5843088403</v>
       </c>
       <c r="D6" t="n">
         <v>411051.695956654</v>
@@ -26332,37 +26372,37 @@
         <v>106551.3126153567</v>
       </c>
       <c r="F6" t="n">
-        <v>398231.7041553484</v>
+        <v>398231.7041553482</v>
       </c>
       <c r="G6" t="n">
-        <v>380799.980907795</v>
+        <v>380799.9809077951</v>
       </c>
       <c r="H6" t="n">
-        <v>423219.3620520549</v>
+        <v>423219.3620520548</v>
       </c>
       <c r="I6" t="n">
-        <v>425642.1206916607</v>
+        <v>425642.1206916608</v>
       </c>
       <c r="J6" t="n">
-        <v>149573.808191444</v>
+        <v>149573.8081914439</v>
       </c>
       <c r="K6" t="n">
-        <v>382996.6135117223</v>
+        <v>382996.6135117221</v>
       </c>
       <c r="L6" t="n">
-        <v>349025.4277378921</v>
+        <v>349025.4277378917</v>
       </c>
       <c r="M6" t="n">
-        <v>442726.6759349832</v>
+        <v>442726.6759349827</v>
       </c>
       <c r="N6" t="n">
-        <v>445231.5205110605</v>
+        <v>445231.5205110603</v>
       </c>
       <c r="O6" t="n">
-        <v>242800.0748994188</v>
+        <v>242800.0748994189</v>
       </c>
       <c r="P6" t="n">
-        <v>407455.938694061</v>
+        <v>407455.9386940611</v>
       </c>
     </row>
   </sheetData>

--- a/model/Outputs/1. Base Case/Output_0_40.xlsx
+++ b/model/Outputs/1. Base Case/Output_0_40.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3276434.759220631</v>
+        <v>3276370.810888279</v>
       </c>
     </row>
     <row r="7">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2053219.271938457</v>
+        <v>2046056.06439852</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2053219.271938457</v>
+        <v>2046056.06439852</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>44444356.94286147</v>
+        <v>44449939.10543498</v>
       </c>
     </row>
   </sheetData>
@@ -22600,25 +22600,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.4197151626543932</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>41.67558172856388</v>
+        <v>40.67558172856388</v>
       </c>
       <c r="U2" t="n">
-        <v>104.2212965486106</v>
+        <v>103.2212965486107</v>
       </c>
       <c r="V2" t="n">
-        <v>84.85102416682392</v>
+        <v>83.85102416682389</v>
       </c>
       <c r="W2" t="n">
-        <v>93.37347598094755</v>
+        <v>92.37347598094755</v>
       </c>
       <c r="X2" t="n">
-        <v>47.28183346066768</v>
+        <v>46.28183346066771</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22679,7 +22679,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>2.2737972923793</v>
+        <v>1.2737972923793</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22746,19 +22746,19 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>26.18507527168492</v>
+        <v>25.18507527168492</v>
       </c>
       <c r="O4" t="n">
-        <v>95.44556407901496</v>
+        <v>94.44556407901496</v>
       </c>
       <c r="P4" t="n">
-        <v>142.4478973282774</v>
+        <v>141.4478973282775</v>
       </c>
       <c r="Q4" t="n">
-        <v>180.8392664255979</v>
+        <v>179.839266425598</v>
       </c>
       <c r="R4" t="n">
-        <v>181.602127981151</v>
+        <v>180.6021279811511</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22846,7 +22846,7 @@
         <v>40.67558172856388</v>
       </c>
       <c r="U5" t="n">
-        <v>103.2212965486106</v>
+        <v>103.2212965486107</v>
       </c>
       <c r="V5" t="n">
         <v>83.85102416682389</v>
@@ -23083,10 +23083,10 @@
         <v>40.67558172856388</v>
       </c>
       <c r="U8" t="n">
-        <v>103.2212965486106</v>
+        <v>103.2212965486107</v>
       </c>
       <c r="V8" t="n">
-        <v>83.85102416682392</v>
+        <v>83.85102416682389</v>
       </c>
       <c r="W8" t="n">
         <v>92.37347598094755</v>
@@ -23153,7 +23153,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>1.273797292379284</v>
+        <v>1.2737972923793</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23226,10 +23226,10 @@
         <v>94.44556407901496</v>
       </c>
       <c r="P10" t="n">
-        <v>141.4478973282774</v>
+        <v>141.4478973282775</v>
       </c>
       <c r="Q10" t="n">
-        <v>179.8392664255979</v>
+        <v>179.839266425598</v>
       </c>
       <c r="R10" t="n">
         <v>180.6021279811511</v>
@@ -23320,7 +23320,7 @@
         <v>74.67558172856388</v>
       </c>
       <c r="U11" t="n">
-        <v>137.2212965486106</v>
+        <v>137.2212965486107</v>
       </c>
       <c r="V11" t="n">
         <v>117.8510241668239</v>
@@ -23454,7 +23454,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>8.631611402549936</v>
+        <v>8.631611402549879</v>
       </c>
       <c r="N13" t="n">
         <v>59.18507527168492</v>
@@ -23557,10 +23557,10 @@
         <v>40.67558172856388</v>
       </c>
       <c r="U14" t="n">
-        <v>103.2212965486106</v>
+        <v>103.2212965486107</v>
       </c>
       <c r="V14" t="n">
-        <v>83.85102416682392</v>
+        <v>83.85102416682389</v>
       </c>
       <c r="W14" t="n">
         <v>92.37347598094755</v>
@@ -23794,10 +23794,10 @@
         <v>38.67558172856388</v>
       </c>
       <c r="U17" t="n">
-        <v>101.2212965486106</v>
+        <v>101.2212965486107</v>
       </c>
       <c r="V17" t="n">
-        <v>81.85102416682392</v>
+        <v>81.85102416682389</v>
       </c>
       <c r="W17" t="n">
         <v>90.37347598094755</v>
@@ -24028,19 +24028,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>39.67558172856388</v>
+        <v>38.67558172856388</v>
       </c>
       <c r="U20" t="n">
-        <v>102.2212965486106</v>
+        <v>101.2212965486107</v>
       </c>
       <c r="V20" t="n">
-        <v>82.85102416682392</v>
+        <v>81.85102416682389</v>
       </c>
       <c r="W20" t="n">
-        <v>91.37347598094755</v>
+        <v>90.37347598094755</v>
       </c>
       <c r="X20" t="n">
-        <v>45.28183346066771</v>
+        <v>44.28183346066771</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24101,7 +24101,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.2737972923792837</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -24168,19 +24168,19 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>24.18507527168492</v>
+        <v>23.18507527168492</v>
       </c>
       <c r="O22" t="n">
-        <v>93.44556407901496</v>
+        <v>92.44556407901496</v>
       </c>
       <c r="P22" t="n">
-        <v>140.4478973282774</v>
+        <v>139.4478973282775</v>
       </c>
       <c r="Q22" t="n">
-        <v>178.8392664255979</v>
+        <v>177.839266425598</v>
       </c>
       <c r="R22" t="n">
-        <v>179.6021279811511</v>
+        <v>178.6021279811511</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24268,10 +24268,10 @@
         <v>38.67558172856388</v>
       </c>
       <c r="U23" t="n">
-        <v>101.2212965486106</v>
+        <v>101.2212965486107</v>
       </c>
       <c r="V23" t="n">
-        <v>81.85102416682392</v>
+        <v>81.85102416682389</v>
       </c>
       <c r="W23" t="n">
         <v>90.37347598094755</v>
@@ -24505,7 +24505,7 @@
         <v>88.67558172856388</v>
       </c>
       <c r="U26" t="n">
-        <v>151.2212965486106</v>
+        <v>151.2212965486107</v>
       </c>
       <c r="V26" t="n">
         <v>131.8510241668239</v>
@@ -24517,7 +24517,7 @@
         <v>94.28183346066771</v>
       </c>
       <c r="Y26" t="n">
-        <v>13.31743268280641</v>
+        <v>13.31743268280638</v>
       </c>
     </row>
     <row r="27">
@@ -24639,7 +24639,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>22.63161140254994</v>
+        <v>22.63161140254988</v>
       </c>
       <c r="N28" t="n">
         <v>73.18507527168492</v>
@@ -24742,10 +24742,10 @@
         <v>37.67558172856388</v>
       </c>
       <c r="U29" t="n">
-        <v>100.2212965486106</v>
+        <v>100.2212965486107</v>
       </c>
       <c r="V29" t="n">
-        <v>80.85102416682392</v>
+        <v>80.85102416682389</v>
       </c>
       <c r="W29" t="n">
         <v>89.37347598094755</v>
@@ -24979,16 +24979,16 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>57.22129654861064</v>
+        <v>56.22129654861067</v>
       </c>
       <c r="V32" t="n">
-        <v>37.85102416682392</v>
+        <v>36.85102416682389</v>
       </c>
       <c r="W32" t="n">
-        <v>46.37347598094755</v>
+        <v>45.37347598094755</v>
       </c>
       <c r="X32" t="n">
-        <v>0.2818334606677126</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25119,16 +25119,16 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>48.44556407901496</v>
+        <v>47.44556407901496</v>
       </c>
       <c r="P34" t="n">
-        <v>95.44789732827746</v>
+        <v>94.44789732827746</v>
       </c>
       <c r="Q34" t="n">
-        <v>133.839266425598</v>
+        <v>132.839266425598</v>
       </c>
       <c r="R34" t="n">
-        <v>134.6021279811511</v>
+        <v>133.6021279811511</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25216,16 +25216,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>57.22129654861064</v>
+        <v>56.22129654861067</v>
       </c>
       <c r="V35" t="n">
-        <v>37.85102416682392</v>
+        <v>36.85102416682389</v>
       </c>
       <c r="W35" t="n">
-        <v>46.37347598094755</v>
+        <v>45.37347598094755</v>
       </c>
       <c r="X35" t="n">
-        <v>0.2818334606677126</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25356,16 +25356,16 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>48.44556407901496</v>
+        <v>47.44556407901496</v>
       </c>
       <c r="P37" t="n">
-        <v>95.44789732827746</v>
+        <v>94.44789732827746</v>
       </c>
       <c r="Q37" t="n">
-        <v>133.839266425598</v>
+        <v>132.839266425598</v>
       </c>
       <c r="R37" t="n">
-        <v>134.6021279811511</v>
+        <v>133.6021279811511</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25453,13 +25453,13 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>55.22129654861064</v>
+        <v>56.22129654861067</v>
       </c>
       <c r="V38" t="n">
-        <v>35.85102416682392</v>
+        <v>36.85102416682389</v>
       </c>
       <c r="W38" t="n">
-        <v>44.37347598094755</v>
+        <v>45.37347598094755</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25593,16 +25593,16 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>46.44556407901496</v>
+        <v>47.44556407901496</v>
       </c>
       <c r="P40" t="n">
-        <v>93.44789732827746</v>
+        <v>94.44789732827746</v>
       </c>
       <c r="Q40" t="n">
-        <v>131.839266425598</v>
+        <v>132.839266425598</v>
       </c>
       <c r="R40" t="n">
-        <v>132.6021279811511</v>
+        <v>133.6021279811511</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25690,7 +25690,7 @@
         <v>91.67558172856388</v>
       </c>
       <c r="U41" t="n">
-        <v>154.2212965486106</v>
+        <v>154.2212965486107</v>
       </c>
       <c r="V41" t="n">
         <v>134.8510241668239</v>
@@ -25702,7 +25702,7 @@
         <v>97.28183346066771</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.31743268280641</v>
+        <v>16.31743268280638</v>
       </c>
     </row>
     <row r="42">
@@ -25824,7 +25824,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>25.63161140254994</v>
+        <v>25.63161140254988</v>
       </c>
       <c r="N43" t="n">
         <v>76.18507527168492</v>
@@ -25870,13 +25870,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>71.99931295557454</v>
+        <v>70.99931295557451</v>
       </c>
       <c r="C44" t="n">
-        <v>39.47457824299391</v>
+        <v>38.47457824299391</v>
       </c>
       <c r="D44" t="n">
-        <v>0.3391557398497866</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25903,10 +25903,10 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>134.2621276423173</v>
+        <v>133.2621276423173</v>
       </c>
       <c r="N44" t="n">
-        <v>67.24895806983523</v>
+        <v>66.24895806983523</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -25918,28 +25918,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>135.4197151626545</v>
+        <v>134.4197151626545</v>
       </c>
       <c r="S44" t="n">
-        <v>84.84816780232293</v>
+        <v>83.84816780232291</v>
       </c>
       <c r="T44" t="n">
-        <v>176.6755817285639</v>
+        <v>175.6755817285639</v>
       </c>
       <c r="U44" t="n">
-        <v>239.2212965486106</v>
+        <v>238.2212965486107</v>
       </c>
       <c r="V44" t="n">
-        <v>219.8510241668239</v>
+        <v>218.8510241668239</v>
       </c>
       <c r="W44" t="n">
-        <v>228.3734759809475</v>
+        <v>227.3734759809475</v>
       </c>
       <c r="X44" t="n">
-        <v>182.2818334606677</v>
+        <v>181.2818334606677</v>
       </c>
       <c r="Y44" t="n">
-        <v>101.3174326828064</v>
+        <v>100.3174326828064</v>
       </c>
     </row>
     <row r="45">
@@ -25997,10 +25997,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>137.2737972923793</v>
+        <v>136.2737972923793</v>
       </c>
       <c r="S45" t="n">
-        <v>56.56399996461133</v>
+        <v>55.5639999646113</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26009,13 +26009,13 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>4.510667191520184</v>
+        <v>3.510667191520156</v>
       </c>
       <c r="W45" t="n">
-        <v>22.37314290982854</v>
+        <v>21.37314290982852</v>
       </c>
       <c r="X45" t="n">
-        <v>9.862739445387575</v>
+        <v>8.862739445387547</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26058,25 +26058,25 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>13.54762815777914</v>
+        <v>12.54762815777917</v>
       </c>
       <c r="M46" t="n">
-        <v>110.6316114025499</v>
+        <v>109.6316114025499</v>
       </c>
       <c r="N46" t="n">
-        <v>161.185075271685</v>
+        <v>160.1850752716849</v>
       </c>
       <c r="O46" t="n">
-        <v>230.445564079015</v>
+        <v>229.445564079015</v>
       </c>
       <c r="P46" t="n">
-        <v>277.4478973282775</v>
+        <v>276.4478973282775</v>
       </c>
       <c r="Q46" t="n">
-        <v>315.839266425598</v>
+        <v>314.839266425598</v>
       </c>
       <c r="R46" t="n">
-        <v>316.6021279811511</v>
+        <v>315.6021279811511</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>910985.2859912235</v>
+        <v>911430.642986434</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1822415.928977657</v>
+        <v>1822861.285972867</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2733846.571964092</v>
+        <v>2734291.928959302</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3626910.439929824</v>
+        <v>3627355.796925034</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4538341.082916259</v>
+        <v>4538786.439911469</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5450589.232656588</v>
+        <v>5451034.589651799</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6362440.175643018</v>
+        <v>6363282.739392127</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7274688.325383346</v>
+        <v>7275530.889132454</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>8159149.34261791</v>
+        <v>8159991.906367019</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9071785.992358239</v>
+        <v>9072628.556107348</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>10000435.60568265</v>
+        <v>10001546.09488936</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>10929085.21900707</v>
+        <v>10930463.63367139</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>11858253.8577891</v>
+        <v>11859381.17245341</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>12740862.67502367</v>
+        <v>12741989.98968798</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>13552025.92216015</v>
+        <v>13554174.88442213</v>
       </c>
     </row>
   </sheetData>
@@ -26319,13 +26319,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1214647.047988299</v>
+        <v>1215240.857315245</v>
       </c>
       <c r="C2" t="n">
         <v>1215240.857315246</v>
       </c>
       <c r="D2" t="n">
-        <v>1215240.857315246</v>
+        <v>1215240.857315245</v>
       </c>
       <c r="E2" t="n">
         <v>1190751.823954309</v>
@@ -26334,34 +26334,34 @@
         <v>1215240.857315246</v>
       </c>
       <c r="G2" t="n">
-        <v>1216330.866320443</v>
+        <v>1216330.866320442</v>
       </c>
       <c r="H2" t="n">
-        <v>1215801.257315246</v>
+        <v>1216330.866320442</v>
       </c>
       <c r="I2" t="n">
-        <v>1216330.866320443</v>
+        <v>1216330.866320442</v>
       </c>
       <c r="J2" t="n">
-        <v>1179281.356312758</v>
+        <v>1179281.356312757</v>
       </c>
       <c r="K2" t="n">
-        <v>1216848.866320443</v>
+        <v>1216848.866320442</v>
       </c>
       <c r="L2" t="n">
-        <v>1238199.484432557</v>
+        <v>1238556.718376026</v>
       </c>
       <c r="M2" t="n">
-        <v>1238199.484432557</v>
+        <v>1238556.718376026</v>
       </c>
       <c r="N2" t="n">
-        <v>1238891.518376026</v>
+        <v>1238556.718376026</v>
       </c>
       <c r="O2" t="n">
         <v>1176811.756312757</v>
       </c>
       <c r="P2" t="n">
-        <v>1081550.996181968</v>
+        <v>1082913.19297886</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>116000</v>
+        <v>116800</v>
       </c>
       <c r="C3" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26386,13 +26386,13 @@
         <v>27200</v>
       </c>
       <c r="G3" t="n">
-        <v>117600</v>
+        <v>118400</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>252800</v>
@@ -26401,19 +26401,19 @@
         <v>68000</v>
       </c>
       <c r="L3" t="n">
-        <v>152000</v>
+        <v>153600</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>173600</v>
+        <v>174400</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
     </row>
     <row r="4">
@@ -26423,7 +26423,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>695910.4495679578</v>
+        <v>696250.6620736052</v>
       </c>
       <c r="C4" t="n">
         <v>693458.2290792631</v>
@@ -26441,7 +26441,7 @@
         <v>682862.2910044396</v>
       </c>
       <c r="H4" t="n">
-        <v>679752.0217723392</v>
+        <v>680048.1250950373</v>
       </c>
       <c r="I4" t="n">
         <v>677230.0305643493</v>
@@ -26453,19 +26453,19 @@
         <v>671867.948505068</v>
       </c>
       <c r="L4" t="n">
-        <v>680775.4915073111</v>
+        <v>680971.9025997932</v>
       </c>
       <c r="M4" t="n">
-        <v>677890.4389547399</v>
+        <v>678086.0176783564</v>
       </c>
       <c r="N4" t="n">
-        <v>675378.4986861161</v>
+        <v>675195.9833342824</v>
       </c>
       <c r="O4" t="n">
         <v>638785.9460037879</v>
       </c>
       <c r="P4" t="n">
-        <v>584546.3841515799</v>
+        <v>585282.6113058582</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>45817.605</v>
+        <v>45901.674</v>
       </c>
       <c r="C5" t="n">
         <v>45901.674</v>
@@ -26493,7 +26493,7 @@
         <v>46069.812</v>
       </c>
       <c r="H5" t="n">
-        <v>45985.743</v>
+        <v>46069.812</v>
       </c>
       <c r="I5" t="n">
         <v>46069.812</v>
@@ -26505,19 +26505,19 @@
         <v>46153.881</v>
       </c>
       <c r="L5" t="n">
-        <v>49768.848</v>
+        <v>49852.917</v>
       </c>
       <c r="M5" t="n">
-        <v>49768.848</v>
+        <v>49852.917</v>
       </c>
       <c r="N5" t="n">
-        <v>49936.986</v>
+        <v>49852.917</v>
       </c>
       <c r="O5" t="n">
         <v>41614.155</v>
       </c>
       <c r="P5" t="n">
-        <v>34468.29</v>
+        <v>34552.359</v>
       </c>
     </row>
     <row r="6">
@@ -26527,49 +26527,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>356918.9934203411</v>
+        <v>356288.5212416401</v>
       </c>
       <c r="C6" t="n">
-        <v>475080.9542359827</v>
+        <v>475880.9542359825</v>
       </c>
       <c r="D6" t="n">
-        <v>478677.1753399732</v>
+        <v>478677.1753399727</v>
       </c>
       <c r="E6" t="n">
         <v>180908.0351164278</v>
       </c>
       <c r="F6" t="n">
-        <v>457081.0890245547</v>
+        <v>457081.0890245545</v>
       </c>
       <c r="G6" t="n">
-        <v>369798.7633160033</v>
+        <v>368998.7633160028</v>
       </c>
       <c r="H6" t="n">
-        <v>490063.4925429067</v>
+        <v>490212.9292254052</v>
       </c>
       <c r="I6" t="n">
-        <v>492231.0237560936</v>
+        <v>493031.0237560932</v>
       </c>
       <c r="J6" t="n">
-        <v>230749.5222610945</v>
+        <v>230749.5222610943</v>
       </c>
       <c r="K6" t="n">
-        <v>430827.0368153749</v>
+        <v>430827.0368153744</v>
       </c>
       <c r="L6" t="n">
-        <v>355655.1449252458</v>
+        <v>354131.8987762324</v>
       </c>
       <c r="M6" t="n">
-        <v>510540.197477817</v>
+        <v>510617.7836976692</v>
       </c>
       <c r="N6" t="n">
-        <v>511176.0336899097</v>
+        <v>513507.8180417431</v>
       </c>
       <c r="O6" t="n">
-        <v>322811.6553089696</v>
+        <v>322011.6553089696</v>
       </c>
       <c r="P6" t="n">
-        <v>462536.3220303878</v>
+        <v>462278.2226730016</v>
       </c>
     </row>
   </sheetData>
@@ -26815,7 +26815,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C2" t="n">
         <v>546</v>
@@ -26833,7 +26833,7 @@
         <v>548</v>
       </c>
       <c r="H2" t="n">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="I2" t="n">
         <v>548</v>
@@ -26845,19 +26845,19 @@
         <v>549</v>
       </c>
       <c r="L2" t="n">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="M2" t="n">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N2" t="n">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="O2" t="n">
         <v>495</v>
       </c>
       <c r="P2" t="n">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="3">
@@ -27037,10 +27037,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27052,13 +27052,13 @@
         <v>34</v>
       </c>
       <c r="G2" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>316</v>
@@ -27067,19 +27067,19 @@
         <v>85</v>
       </c>
       <c r="L2" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27274,10 +27274,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27289,13 +27289,13 @@
         <v>34</v>
       </c>
       <c r="L2" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>316</v>
@@ -27556,25 +27556,25 @@
         <v>172.8226843274854</v>
       </c>
       <c r="R2" t="n">
-        <v>545</v>
+        <v>545.4197151626545</v>
       </c>
       <c r="S2" t="n">
         <v>494.8481678023229</v>
       </c>
       <c r="T2" t="n">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="U2" t="n">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="V2" t="n">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="W2" t="n">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="X2" t="n">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="Y2" t="n">
         <v>511.3174326828064</v>
@@ -27635,7 +27635,7 @@
         <v>190.354460434013</v>
       </c>
       <c r="R3" t="n">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="S3" t="n">
         <v>466.5639999646113</v>
@@ -27702,19 +27702,19 @@
         <v>520.6316114025499</v>
       </c>
       <c r="N4" t="n">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="O4" t="n">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="P4" t="n">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="Q4" t="n">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="R4" t="n">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="S4" t="n">
         <v>362.3734797028554</v>
@@ -28984,19 +28984,19 @@
         <v>494.8481678023229</v>
       </c>
       <c r="T20" t="n">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="U20" t="n">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="V20" t="n">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="W20" t="n">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="X20" t="n">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="Y20" t="n">
         <v>511.3174326828064</v>
@@ -29057,7 +29057,7 @@
         <v>190.354460434013</v>
       </c>
       <c r="R21" t="n">
-        <v>547</v>
+        <v>547.2737972923793</v>
       </c>
       <c r="S21" t="n">
         <v>466.5639999646113</v>
@@ -29124,19 +29124,19 @@
         <v>520.6316114025499</v>
       </c>
       <c r="N22" t="n">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="O22" t="n">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="P22" t="n">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="Q22" t="n">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="R22" t="n">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="S22" t="n">
         <v>362.3734797028554</v>
@@ -29935,16 +29935,16 @@
         <v>586.6755817285639</v>
       </c>
       <c r="U32" t="n">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="V32" t="n">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="W32" t="n">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="X32" t="n">
-        <v>592</v>
+        <v>592.2818334606677</v>
       </c>
       <c r="Y32" t="n">
         <v>511.3174326828064</v>
@@ -30075,16 +30075,16 @@
         <v>571.1850752716849</v>
       </c>
       <c r="O34" t="n">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="P34" t="n">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="Q34" t="n">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="R34" t="n">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="S34" t="n">
         <v>362.3734797028554</v>
@@ -30172,16 +30172,16 @@
         <v>586.6755817285639</v>
       </c>
       <c r="U35" t="n">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="V35" t="n">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="W35" t="n">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="X35" t="n">
-        <v>592</v>
+        <v>592.2818334606677</v>
       </c>
       <c r="Y35" t="n">
         <v>511.3174326828064</v>
@@ -30312,16 +30312,16 @@
         <v>571.1850752716849</v>
       </c>
       <c r="O37" t="n">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="P37" t="n">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="Q37" t="n">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="R37" t="n">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="S37" t="n">
         <v>362.3734797028554</v>
@@ -30409,13 +30409,13 @@
         <v>586.6755817285639</v>
       </c>
       <c r="U38" t="n">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="V38" t="n">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="W38" t="n">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="X38" t="n">
         <v>592.2818334606677</v>
@@ -30549,16 +30549,16 @@
         <v>571.1850752716849</v>
       </c>
       <c r="O40" t="n">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="P40" t="n">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="Q40" t="n">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="R40" t="n">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="S40" t="n">
         <v>362.3734797028554</v>
@@ -30826,13 +30826,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C44" t="n">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D44" t="n">
-        <v>410</v>
+        <v>410.3391557398498</v>
       </c>
       <c r="E44" t="n">
         <v>404.3632896068686</v>
@@ -30859,10 +30859,10 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N44" t="n">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="O44" t="n">
         <v>70.24786957409245</v>
@@ -30874,28 +30874,28 @@
         <v>172.8226843274854</v>
       </c>
       <c r="R44" t="n">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="S44" t="n">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="T44" t="n">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="U44" t="n">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="V44" t="n">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="W44" t="n">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="X44" t="n">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Y44" t="n">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="45">
@@ -30953,10 +30953,10 @@
         <v>190.354460434013</v>
       </c>
       <c r="R45" t="n">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="S45" t="n">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="T45" t="n">
         <v>405.3577652175138</v>
@@ -30965,13 +30965,13 @@
         <v>400.2103597601867</v>
       </c>
       <c r="V45" t="n">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="W45" t="n">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="X45" t="n">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Y45" t="n">
         <v>399.3913927661343</v>
@@ -31014,25 +31014,25 @@
         <v>288.520773801143</v>
       </c>
       <c r="L46" t="n">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M46" t="n">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N46" t="n">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="O46" t="n">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="P46" t="n">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q46" t="n">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="R46" t="n">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="S46" t="n">
         <v>362.3734797028554</v>

--- a/model/Outputs/1. Base Case/Output_0_40.xlsx
+++ b/model/Outputs/1. Base Case/Output_0_40.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailaub-my.sharepoint.com/personal/mo10_aub_edu_lb/Documents/3-Research/Elsa/Model 1/Github/Model-1/model/Outputs/1. Base Case/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="111" documentId="11_A1BFF2B761B4EDFB341AD830CD3C965A301DB901" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B20840B-7C02-48C5-AA67-D9C1B18C25D4}"/>
+  <xr:revisionPtr revIDLastSave="145" documentId="11_A1BFF2B761B4EDFB341AD830CD3C965A301DB901" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F85F986-7A23-4C12-9A19-0FC2B4FCAA8B}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="76">
   <si>
     <t>Interest Rate</t>
   </si>
@@ -275,13 +275,17 @@
   <si>
     <t>profits at breakeven</t>
   </si>
+  <si>
+    <t>IRR</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -295,6 +299,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -332,18 +337,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -25754,10 +25758,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -25765,6 +25769,7 @@
     <col min="1" max="1" width="28.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
@@ -26065,314 +26070,327 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B7" s="5"/>
+      <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <f>SUM(B3:B5)</f>
         <v>858952.33607360523</v>
       </c>
-      <c r="C8">
-        <f t="shared" ref="C8:P8" si="0">SUM(C3:C5)</f>
+      <c r="C9">
+        <f t="shared" ref="C9:P9" si="0">SUM(C3:C5)</f>
         <v>739359.90307926305</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <f t="shared" si="0"/>
         <v>736563.6819752726</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <f t="shared" si="0"/>
         <v>1009843.7888378811</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <f t="shared" si="0"/>
         <v>758159.76829069108</v>
       </c>
-      <c r="G8">
+      <c r="G9">
         <f t="shared" si="0"/>
         <v>847332.10300443962</v>
       </c>
-      <c r="H8">
+      <c r="H9">
         <f t="shared" si="0"/>
         <v>726117.93709503731</v>
       </c>
-      <c r="I8">
+      <c r="I9">
         <f t="shared" si="0"/>
         <v>723299.8425643493</v>
       </c>
-      <c r="J8">
+      <c r="J9">
         <f t="shared" si="0"/>
         <v>948531.83405166306</v>
       </c>
-      <c r="K8">
+      <c r="K9">
         <f t="shared" si="0"/>
         <v>786021.82950506802</v>
       </c>
-      <c r="L8">
+      <c r="L9">
         <f t="shared" si="0"/>
         <v>884424.81959979318</v>
       </c>
-      <c r="M8">
+      <c r="M9">
         <f t="shared" si="0"/>
         <v>727938.9346783564</v>
       </c>
-      <c r="N8">
+      <c r="N9">
         <f t="shared" si="0"/>
         <v>725048.90033428243</v>
       </c>
-      <c r="O8">
+      <c r="O9">
         <f t="shared" si="0"/>
         <v>854800.10100378795</v>
       </c>
-      <c r="P8">
+      <c r="P9">
         <f t="shared" si="0"/>
         <v>620634.97030585818</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <f>B2/0.4</f>
         <v>3038102.1432881127</v>
       </c>
-      <c r="C9">
-        <f t="shared" ref="C9:P9" si="1">C2/0.4</f>
+      <c r="C10">
+        <f t="shared" ref="C10:P10" si="1">C2/0.4</f>
         <v>3038102.143288115</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <f t="shared" si="1"/>
         <v>3038102.1432881127</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <f t="shared" si="1"/>
         <v>2976879.5598857724</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <f t="shared" si="1"/>
         <v>3038102.143288115</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <f t="shared" si="1"/>
         <v>3040827.1658011046</v>
       </c>
-      <c r="H9">
+      <c r="H10">
         <f t="shared" si="1"/>
         <v>3040827.1658011046</v>
       </c>
-      <c r="I9">
+      <c r="I10">
         <f t="shared" si="1"/>
         <v>3040827.1658011046</v>
       </c>
-      <c r="J9">
+      <c r="J10">
         <f t="shared" si="1"/>
         <v>2948203.390781892</v>
       </c>
-      <c r="K9">
+      <c r="K10">
         <f t="shared" si="1"/>
         <v>3042122.1658011046</v>
       </c>
-      <c r="L9">
+      <c r="L10">
         <f t="shared" si="1"/>
         <v>3096391.7959400648</v>
       </c>
-      <c r="M9">
+      <c r="M10">
         <f t="shared" si="1"/>
         <v>3096391.7959400648</v>
       </c>
-      <c r="N9">
+      <c r="N10">
         <f t="shared" si="1"/>
         <v>3096391.7959400648</v>
       </c>
-      <c r="O9">
+      <c r="O10">
         <f t="shared" si="1"/>
         <v>2942029.3907818925</v>
       </c>
-      <c r="P9">
+      <c r="P10">
         <f t="shared" si="1"/>
         <v>2707282.9824471502</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B10">
-        <f>B9*$B$14</f>
+      <c r="B11">
+        <f>B10*$B$15</f>
         <v>810053.9637127351</v>
       </c>
-      <c r="C10">
-        <f t="shared" ref="C10:P10" si="2">C9*$B$14</f>
+      <c r="C11">
+        <f t="shared" ref="C11:P11" si="2">C10*$B$15</f>
         <v>810053.96371273568</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <f t="shared" si="2"/>
         <v>810053.9637127351</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <f t="shared" si="2"/>
         <v>793730.08978921897</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <f t="shared" si="2"/>
         <v>810053.96371273568</v>
       </c>
-      <c r="G10">
+      <c r="G11">
         <f t="shared" si="2"/>
         <v>810780.54076108488</v>
       </c>
-      <c r="H10">
+      <c r="H11">
         <f t="shared" si="2"/>
         <v>810780.54076108488</v>
       </c>
-      <c r="I10">
+      <c r="I11">
         <f t="shared" si="2"/>
         <v>810780.54076108488</v>
       </c>
-      <c r="J10">
+      <c r="J11">
         <f t="shared" si="2"/>
         <v>786084.11761609302</v>
       </c>
-      <c r="K10">
+      <c r="K11">
         <f t="shared" si="2"/>
         <v>811125.82865251589</v>
       </c>
-      <c r="L10">
+      <c r="L11">
         <f t="shared" si="2"/>
         <v>825595.82568681904</v>
       </c>
-      <c r="M10">
+      <c r="M11">
         <f t="shared" si="2"/>
         <v>825595.82568681904</v>
       </c>
-      <c r="N10">
+      <c r="N11">
         <f t="shared" si="2"/>
         <v>825595.82568681904</v>
       </c>
-      <c r="O10">
+      <c r="O11">
         <f t="shared" si="2"/>
         <v>784437.93426343286</v>
       </c>
-      <c r="P10">
+      <c r="P11">
         <f t="shared" si="2"/>
         <v>721847.12935616914</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B11">
-        <f>B10-B8</f>
+      <c r="B12">
+        <f>B11-B9</f>
         <v>-48898.372360870126</v>
       </c>
-      <c r="C11">
-        <f t="shared" ref="C11:P11" si="3">C10-C8</f>
+      <c r="C12">
+        <f t="shared" ref="C12:P12" si="3">C11-C9</f>
         <v>70694.060633472633</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <f t="shared" si="3"/>
         <v>73490.281737462501</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <f t="shared" si="3"/>
         <v>-216113.69904866209</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <f t="shared" si="3"/>
         <v>51894.195422044606</v>
       </c>
-      <c r="G11">
+      <c r="G12">
         <f t="shared" si="3"/>
         <v>-36551.56224335474</v>
       </c>
-      <c r="H11">
+      <c r="H12">
         <f t="shared" si="3"/>
         <v>84662.603666047566</v>
       </c>
-      <c r="I11">
+      <c r="I12">
         <f t="shared" si="3"/>
         <v>87480.698196735582</v>
       </c>
-      <c r="J11">
+      <c r="J12">
         <f t="shared" si="3"/>
         <v>-162447.71643557004</v>
       </c>
-      <c r="K11">
+      <c r="K12">
         <f t="shared" si="3"/>
         <v>25103.999147447874</v>
       </c>
-      <c r="L11">
+      <c r="L12">
         <f t="shared" si="3"/>
         <v>-58828.99391297414</v>
       </c>
-      <c r="M11">
+      <c r="M12">
         <f t="shared" si="3"/>
         <v>97656.89100846264</v>
       </c>
-      <c r="N11">
+      <c r="N12">
         <f t="shared" si="3"/>
         <v>100546.92535253661</v>
       </c>
-      <c r="O11">
+      <c r="O12">
         <f t="shared" si="3"/>
         <v>-70362.166740355082</v>
       </c>
-      <c r="P11">
+      <c r="P12">
         <f t="shared" si="3"/>
         <v>101212.15905031096</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" s="5">
-        <f>NPV(B17,C8:P8)+B8</f>
-        <v>6432780.4187297523</v>
-      </c>
-    </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" s="5">
-        <f>NPV(B17,C9:P9)+B9</f>
-        <v>24126101.288204111</v>
-      </c>
-      <c r="D13" s="5">
-        <f>NPV(0.11,C11:P11)+B11</f>
-        <v>7.0576788857579231E-10</v>
+        <v>70</v>
+      </c>
+      <c r="B13" s="4">
+        <f>NPV(B18,C9:P9)+B9</f>
+        <v>6432780.4187297523</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="4">
+        <f>NPV(B18,C10:P10)+B10</f>
+        <v>24126101.288204111</v>
+      </c>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B14">
-        <f>B12/B13</f>
+      <c r="B15">
+        <f>B13/B14</f>
         <v>0.26663157639460416</v>
       </c>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
+      <c r="D15" s="4"/>
+      <c r="E15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="3">
+        <f>IRR(B12:P12,10)</f>
+        <v>0.11000000000000187</v>
+      </c>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A16" s="2"/>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B18">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
